--- a/public/Reportes-Sukhavati-Yoga/assets/templates/Plantilla_Actividades.xlsx
+++ b/public/Reportes-Sukhavati-Yoga/assets/templates/Plantilla_Actividades.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d354a26209d14364/Desktop/Sukhavati Yoga/Catalogos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\SukhavatiYoga\Reportes-Sukhavati-Yoga\public\Reportes-Sukhavati-Yoga\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32643D56-E3D3-4BB1-ADAC-2791E4E308AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AE406E-3348-4E62-A5C9-93E6F0CD8B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3465" windowWidth="43200" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="29010" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Histórico" sheetId="1" r:id="rId1"/>
@@ -65,12 +65,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -85,8 +91,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,10 +436,10 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD9077"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="30.875" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
@@ -440,35 +447,35 @@
     <col min="6" max="6" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
